--- a/114工程人才紀錄.xlsx
+++ b/114工程人才紀錄.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B30724\Documents\計畫\114-產發署工程人才計畫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B30724\Documents\GitHub\photonic_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F556D6-36B4-4C1F-B195-3C1050195EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C5DEA-60DA-4DF9-A58C-E87B435106A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>四</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>小時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Meep計算Linear Taper Waveguide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -155,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -436,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,6 +551,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
